--- a/apachepoi/MyExcelTest.xlsx
+++ b/apachepoi/MyExcelTest.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Datatypes in Java" r:id="rId3" sheetId="1"/>
+    <sheet name="KPI availability" r:id="rId4" sheetId="2"/>
+    <sheet name="KPI perfomance" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Datatype</t>
   </si>
@@ -45,6 +47,33 @@
   </si>
   <si>
     <t>No fixed size</t>
+  </si>
+  <si>
+    <t>HeaderColonna1</t>
+  </si>
+  <si>
+    <t>HeaderColonna2</t>
+  </si>
+  <si>
+    <t>HeaderColonna3</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna1_1</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna1_2</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna2_1</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna2_2</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna3_1</t>
+  </si>
+  <si>
+    <t>SubHeaderColonna3_2</t>
   </si>
 </sst>
 </file>
@@ -164,4 +193,65 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="C2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>